--- a/Cópia de documentacao_rede (1).xlsx
+++ b/Cópia de documentacao_rede (1).xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Publica\@@@@TR1.25\Material_De_Aula\Projeto_Integrador\New body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62921688-623F-4FCA-A91A-D1983BDB4177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07FFA77-4796-4245-8E76-6A763A2F01A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informações Gerais" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Informações Gerais'!$A$1:$AE$75</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>Campo</t>
   </si>
@@ -40,9 +43,6 @@
     <t>Data de Documentação</t>
   </si>
   <si>
-    <t>[dd/mm/aaaa]</t>
-  </si>
-  <si>
     <t>Última Atualização</t>
   </si>
   <si>
@@ -73,63 +73,12 @@
     <t>24 portas</t>
   </si>
   <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
-    <t>VLAN 10, 20 e 30</t>
-  </si>
-  <si>
-    <t>Patch Panel</t>
-  </si>
-  <si>
-    <t>Furukawa</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Conectado ao SW-01</t>
-  </si>
-  <si>
     <t>Roteador</t>
   </si>
   <si>
-    <t>eth1</t>
-  </si>
-  <si>
-    <t>192.168.1.254</t>
-  </si>
-  <si>
-    <t>Gateway padrão</t>
-  </si>
-  <si>
-    <t>Nobreak</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Alimenta a rack</t>
-  </si>
-  <si>
-    <t>Servidor</t>
-  </si>
-  <si>
-    <t>SRV-01</t>
-  </si>
-  <si>
-    <t>Dell PowerEdge T30</t>
-  </si>
-  <si>
-    <t>eth0</t>
-  </si>
-  <si>
-    <t>192.168.1.10</t>
-  </si>
-  <si>
-    <t>Servidor de arquivos</t>
-  </si>
-  <si>
     <t>Nº Porta Patch Panel</t>
   </si>
   <si>
@@ -148,12 +97,6 @@
     <t>T-01</t>
   </si>
   <si>
-    <t>Computador Professores</t>
-  </si>
-  <si>
-    <t>Funciona na VLAN 10</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -163,108 +106,36 @@
     <t>Impressora HP</t>
   </si>
   <si>
-    <t>VLAN 20 - DHCP Estático</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
     <t>T-03</t>
   </si>
   <si>
-    <t>Ponto sem uso</t>
-  </si>
-  <si>
-    <t>Reservado</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
     <t>T-04</t>
   </si>
   <si>
-    <t>Computador Aluno</t>
-  </si>
-  <si>
-    <t>Funciona na VLAN 30</t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
     <t>T-05</t>
   </si>
   <si>
-    <t>VLAN 10 - Acesso restrito</t>
-  </si>
-  <si>
-    <t>Dispositivo</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Máscara</t>
-  </si>
-  <si>
-    <t>Gateway</t>
-  </si>
-  <si>
-    <t>VLAN</t>
-  </si>
-  <si>
-    <t>DHCP / Estático</t>
-  </si>
-  <si>
-    <t>Switch SW-01</t>
-  </si>
-  <si>
-    <t>255.255.255.0</t>
-  </si>
-  <si>
-    <t>Estático</t>
-  </si>
-  <si>
-    <t>Roteador RT-01</t>
-  </si>
-  <si>
-    <t>Servidor SRV-01</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Computador Prof</t>
   </si>
   <si>
     <t>192.168.10.10</t>
   </si>
   <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>DHCP</t>
-  </si>
-  <si>
     <t>192.168.20.5</t>
   </si>
   <si>
-    <t>192.168.20.1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>O cabeamento segue o padrão TIA/EIA-568B.</t>
-  </si>
-  <si>
     <t>Todos os pontos testados com testador de rede e certificados.</t>
   </si>
   <si>
-    <t>Backup da configuração do switch e roteador salvo em \\servidor\backup\network.</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -277,15 +148,9 @@
     <t>Data</t>
   </si>
   <si>
-    <t>[Responsável Técnico]</t>
-  </si>
-  <si>
     <t>Analista de Infraestrutura</t>
   </si>
   <si>
-    <t>[Validador]</t>
-  </si>
-  <si>
     <t>Coordenação / TI</t>
   </si>
   <si>
@@ -304,38 +169,143 @@
     <t>[26/06/2025]</t>
   </si>
   <si>
-    <t>PP-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sala 01 </t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
-    <t>Sala 02</t>
-  </si>
-  <si>
-    <t>Sala 03</t>
-  </si>
-  <si>
     <t>Sala 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Sala 05- recepção </t>
-  </si>
-  <si>
-    <t>impressora HP</t>
+    <t xml:space="preserve">computador 1 </t>
+  </si>
+  <si>
+    <t>computador 2</t>
+  </si>
+  <si>
+    <t>computador 3</t>
+  </si>
+  <si>
+    <t>computador 4</t>
+  </si>
+  <si>
+    <t>computador 5</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>modem</t>
+  </si>
+  <si>
+    <t>7 portas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packet tracer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">não aplicavel </t>
+  </si>
+  <si>
+    <t>nenhuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 portas lans e 1 wan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 portas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 portas </t>
+  </si>
+  <si>
+    <t>1 porta lan e 1 porta coxial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 porta lan e 1 porta serial </t>
+  </si>
+  <si>
+    <t>o cabeamento segue o padrão 568A</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Sala 06</t>
+  </si>
+  <si>
+    <t>Sala 05</t>
+  </si>
+  <si>
+    <t>T-06</t>
+  </si>
+  <si>
+    <t>computador 6</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>IS-01</t>
+  </si>
+  <si>
+    <t>M-01</t>
+  </si>
+  <si>
+    <t>RT-01</t>
+  </si>
+  <si>
+    <t>H-01</t>
+  </si>
+  <si>
+    <t>SW-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servidor </t>
+  </si>
+  <si>
+    <t>SV-01</t>
+  </si>
+  <si>
+    <t>impressora-sala 4</t>
+  </si>
+  <si>
+    <t>IP externo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala 01 - recpção </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala 02 - recpção </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala 03 - sala da impressora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP linux/IP windows </t>
+  </si>
+  <si>
+    <t>192.168.100.1   / 192.168.100.11</t>
+  </si>
+  <si>
+    <t>192.168.100.2   / 192.168.100.12</t>
+  </si>
+  <si>
+    <t>192.168.100.5   / 192.168.100.15</t>
+  </si>
+  <si>
+    <t>192.168.100.4   / 192.168.100.14</t>
+  </si>
+  <si>
+    <t>192.168.100.3   / 192.168.100.13</t>
+  </si>
+  <si>
+    <t>192.168.100.     / 192.168.100.16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,16 +325,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -387,30 +375,235 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -421,6 +614,115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2120348</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A871C9-3FDE-7B5C-C5F4-AED29883203A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2120348" y="4588565"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCB3E108-7514-4A97-941F-B19206247A4C}" name="Tabela1" displayName="Tabela1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="A1:B6" xr:uid="{BCB3E108-7514-4A97-941F-B19206247A4C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{83686825-A27A-4256-9C53-7AC37DFE37A9}" name="Campo" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{DE2513BB-0343-4EAF-957F-87A3DFE7BBBE}" name="Descrição" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F51B3A-9F33-49F2-9743-D33B2BEFD477}" name="Tabela4" displayName="Tabela4" ref="A10:F23" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A10:F23" xr:uid="{99F51B3A-9F33-49F2-9743-D33B2BEFD477}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5B9D4C5A-A468-4AA4-8DB9-EA68095B2C69}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{9AE7D4B3-B251-462A-841D-B6623149582D}" name="Identificação"/>
+    <tableColumn id="3" xr3:uid="{3CA719EF-0477-4AE9-AEDA-FBED42E09C71}" name="Modelo / Marca"/>
+    <tableColumn id="4" xr3:uid="{E0140855-2E04-46E0-AA62-2A39DDA06111}" name="Porta / Slot"/>
+    <tableColumn id="5" xr3:uid="{5EAB5B5E-499E-49EB-AAB6-7F03A5D71B00}" name="IP (se aplicável)"/>
+    <tableColumn id="6" xr3:uid="{27B348FC-2D2A-4015-A340-696023EBC43F}" name="Observações"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCB82529-7B03-45E2-BC19-1C4F50B8FE2F}" name="Tabela5" displayName="Tabela5" ref="A38:D40" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A38:D40" xr:uid="{BCB82529-7B03-45E2-BC19-1C4F50B8FE2F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F126D1D8-BFAE-45E2-B912-186EC6BCB332}" name="Nome"/>
+    <tableColumn id="2" xr3:uid="{3C6F5F07-6DA6-4166-953B-1ACB95E15FA2}" name="Cargo"/>
+    <tableColumn id="3" xr3:uid="{31BBF5C2-AE6F-43A6-B7BA-B545DEDADFA0}" name="Assinatura"/>
+    <tableColumn id="4" xr3:uid="{4CBF2A7F-64FC-4C0D-BDB1-5435F5B67A41}" name="Data" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D1D093C-F46B-40F4-8C30-7D449336E41E}" name="Tabela6" displayName="Tabela6" ref="A32:A34" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A32:A34" xr:uid="{4D1D093C-F46B-40F4-8C30-7D449336E41E}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{47315215-EB10-47EB-BD94-C3E0F0D61C7B}" name="Observações"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,516 +1023,461 @@
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>91</v>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>90</v>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>89</v>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>93</v>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>92</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
-        <v>2960</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
       <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>101</v>
-      </c>
       <c r="F22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>84</v>
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45883</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A43" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:C25 A22" xr:uid="{8E623029-538B-4CB1-A081-00081DCCCBF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22" xr:uid="{8E623029-538B-4CB1-A081-00081DCCCBF8}">
       <formula1>"l"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6585ac2a-8daf-48ed-9f4d-abb82c961638" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F7A3AC238DF8054F94747A07E1C87C2A" ma:contentTypeVersion="5" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e1f610b1c9de12048db7a756a2d45851">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6585ac2a-8daf-48ed-9f4d-abb82c961638" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00a8a9e8c33b2a8e7767c06d4541b045" ns3:_="">
     <xsd:import namespace="6585ac2a-8daf-48ed-9f4d-abb82c961638"/>
@@ -1380,24 +1627,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6585ac2a-8daf-48ed-9f4d-abb82c961638" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C9D932-E3A0-4EE0-BDDF-68F932F5F516}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE30D74-93BE-4B5F-B018-978D16EA64DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6585ac2a-8daf-48ed-9f4d-abb82c961638"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A011062-F12D-489D-B35F-63FC3384C3E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1413,28 +1667,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE30D74-93BE-4B5F-B018-978D16EA64DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6585ac2a-8daf-48ed-9f4d-abb82c961638"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C9D932-E3A0-4EE0-BDDF-68F932F5F516}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>